--- a/perf_best_excel.xlsx
+++ b/perf_best_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\kutsukawa\Programming2\tsp\kutsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2672A2ED-82D9-4C49-A103-6A0042F272B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0CEF3FE-33BB-4473-8E49-6C89F43AEB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{618ED214-4E98-43F9-A4D4-6A74A5964892}"/>
   </bookViews>
@@ -16,46 +16,14 @@
     <sheet name="perf_best_excel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">perf_best_excel!$B$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">perf_best_excel!$B$42:$B$57</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">perf_best_excel!$A$31</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">perf_best_excel!$A$32</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">perf_best_excel!$A$33</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">perf_best_excel!$A$34</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">perf_best_excel!$C$41</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">perf_best_excel!$A$35</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">perf_best_excel!$B$31:$Q$31</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">perf_best_excel!$B$32:$Q$32</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">perf_best_excel!$B$33:$Q$33</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">perf_best_excel!$B$34:$Q$34</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">perf_best_excel!$B$35:$Q$35</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">perf_best_excel!$A$31</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">perf_best_excel!$A$32</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">perf_best_excel!$C$42:$C$57</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">perf_best_excel!$A$33</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">perf_best_excel!$A$34</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">perf_best_excel!$A$35</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">perf_best_excel!$B$31:$Q$31</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">perf_best_excel!$B$32:$Q$32</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">perf_best_excel!$B$33:$Q$33</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">perf_best_excel!$B$34:$Q$34</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">perf_best_excel!$B$35:$Q$35</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">perf_best_excel!$D$41</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">perf_best_excel!$D$42:$D$57</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">perf_best_excel!$E$41</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">perf_best_excel!$E$42:$E$57</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">perf_best_excel!$F$41</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">perf_best_excel!$F$42:$F$57</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -84,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
   <si>
     <t xml:space="preserve">       </t>
   </si>
@@ -232,6 +200,50 @@
   </si>
   <si>
     <t>Nearest Insertion</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Random+Kruskal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Nearest + Kruskal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Random + Nearest</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Random + Nearest + Kruskal</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最良コスト</t>
+    <rPh sb="0" eb="2">
+      <t>サイリョウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>効率</t>
+    <rPh sb="0" eb="2">
+      <t>コウリツ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>最適解</t>
+    <rPh sb="0" eb="3">
+      <t>サイテキカイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -825,8 +837,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,10 +907,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -976,7 +991,136 @@
 </cx:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{BD94F14F-7A9A-45F2-A337-8A06CB4E649E}">
+          <cx:spPr>
+            <a:noFill/>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="1" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.300000012"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="104" min="100"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>効率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1531,20 +1675,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>187324</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317499</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>88899</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>196849</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1580,8 +2239,86 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4143374" y="7731124"/>
+              <a:off x="0" y="16297274"/>
               <a:ext cx="6080125" cy="4016375"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="グラフ 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B873C46-91C7-5AD4-8ED4-697A72F6B1D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7058025" y="8702675"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1931,15 +2668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A7C18F-B6E1-4031-B7C5-C7EAA07A770B}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:AL120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1991,8 +2728,59 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2044,8 +2832,75 @@
       <c r="Q2">
         <v>102.99</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="V2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1">
+        <f>W3*W4/100</f>
+        <v>6127.1080000000002</v>
+      </c>
+      <c r="X2" s="1">
+        <f t="shared" ref="X2:AK2" si="0">X3*X4/100</f>
+        <v>426</v>
+      </c>
+      <c r="Y2" s="1">
+        <f t="shared" si="0"/>
+        <v>629</v>
+      </c>
+      <c r="Z2" s="1">
+        <f t="shared" si="0"/>
+        <v>21282</v>
+      </c>
+      <c r="AA2" s="1">
+        <f t="shared" si="0"/>
+        <v>26550.523999999998</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" si="0"/>
+        <v>29476.661600000003</v>
+      </c>
+      <c r="AC2" s="1">
+        <f t="shared" si="0"/>
+        <v>108159</v>
+      </c>
+      <c r="AD2" s="1">
+        <f t="shared" si="0"/>
+        <v>1211</v>
+      </c>
+      <c r="AE2" s="1">
+        <f t="shared" si="0"/>
+        <v>2351.1082999999999</v>
+      </c>
+      <c r="AF2" s="1">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="AG2" s="1">
+        <f t="shared" si="0"/>
+        <v>3453.9261999999999</v>
+      </c>
+      <c r="AH2" s="1">
+        <f t="shared" si="0"/>
+        <v>6922.1028000000006</v>
+      </c>
+      <c r="AI2" s="1">
+        <f t="shared" si="0"/>
+        <v>55992.967800000006</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f t="shared" si="0"/>
+        <v>70146.382599999997</v>
+      </c>
+      <c r="AK2" s="1">
+        <f t="shared" si="0"/>
+        <v>41155.968000000001</v>
+      </c>
+      <c r="AL2" s="1">
+        <f>AL3*AL4/100</f>
+        <v>136634.4902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2097,8 +2952,59 @@
       <c r="Q3">
         <v>102.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3">
+        <v>100.28</v>
+      </c>
+      <c r="X3">
+        <v>100</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <v>100</v>
+      </c>
+      <c r="AA3">
+        <v>100.1</v>
+      </c>
+      <c r="AB3">
+        <v>100.37</v>
+      </c>
+      <c r="AC3">
+        <v>100</v>
+      </c>
+      <c r="AD3">
+        <v>100</v>
+      </c>
+      <c r="AE3">
+        <v>101.21</v>
+      </c>
+      <c r="AF3">
+        <v>100</v>
+      </c>
+      <c r="AG3">
+        <v>103.94</v>
+      </c>
+      <c r="AH3">
+        <v>100.92</v>
+      </c>
+      <c r="AI3">
+        <v>101.42</v>
+      </c>
+      <c r="AJ3">
+        <v>100.42</v>
+      </c>
+      <c r="AK3">
+        <v>102.48</v>
+      </c>
+      <c r="AL3">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2150,8 +3056,59 @@
       <c r="Q4">
         <v>104.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4">
+        <v>6110</v>
+      </c>
+      <c r="X4">
+        <v>426</v>
+      </c>
+      <c r="Y4">
+        <v>629</v>
+      </c>
+      <c r="Z4">
+        <v>21282</v>
+      </c>
+      <c r="AA4">
+        <v>26524</v>
+      </c>
+      <c r="AB4">
+        <v>29368</v>
+      </c>
+      <c r="AC4">
+        <v>108159</v>
+      </c>
+      <c r="AD4">
+        <v>1211</v>
+      </c>
+      <c r="AE4">
+        <v>2323</v>
+      </c>
+      <c r="AF4">
+        <v>675</v>
+      </c>
+      <c r="AG4">
+        <v>3323</v>
+      </c>
+      <c r="AH4">
+        <v>6859</v>
+      </c>
+      <c r="AI4">
+        <v>55209</v>
+      </c>
+      <c r="AJ4">
+        <v>69853</v>
+      </c>
+      <c r="AK4">
+        <v>40160</v>
+      </c>
+      <c r="AL4">
+        <v>134602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2203,8 +3160,59 @@
       <c r="Q5">
         <v>104.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="V5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5">
+        <v>1.0696829999999999</v>
+      </c>
+      <c r="X5">
+        <v>1.0679689999999999</v>
+      </c>
+      <c r="Y5">
+        <v>1.0685340000000001</v>
+      </c>
+      <c r="Z5">
+        <v>1.0684959999999999</v>
+      </c>
+      <c r="AA5">
+        <v>1.0697369999999999</v>
+      </c>
+      <c r="AB5">
+        <v>1.071369</v>
+      </c>
+      <c r="AC5">
+        <v>1.0681689999999999</v>
+      </c>
+      <c r="AD5">
+        <v>1.068541</v>
+      </c>
+      <c r="AE5">
+        <v>1.070486</v>
+      </c>
+      <c r="AF5">
+        <v>1.0680860000000001</v>
+      </c>
+      <c r="AG5">
+        <v>1.0678319999999999</v>
+      </c>
+      <c r="AH5">
+        <v>1.068154</v>
+      </c>
+      <c r="AI5">
+        <v>1.0687690000000001</v>
+      </c>
+      <c r="AJ5">
+        <v>1.069655</v>
+      </c>
+      <c r="AK5">
+        <v>1.071393</v>
+      </c>
+      <c r="AL5">
+        <v>1.072281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2257,7 +3265,7 @@
         <v>104.23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2310,7 +3318,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2363,7 +3371,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2416,7 +3424,7 @@
         <v>104.64</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2469,7 +3477,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2522,7 +3530,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2575,7 +3583,7 @@
         <v>103.63</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2628,7 +3636,7 @@
         <v>105.41</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2681,7 +3689,7 @@
         <v>102.99</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2734,7 +3742,7 @@
         <v>103.63</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -4014,6 +5022,13 @@
         <f t="array" ref="D41:D56">TRANSPOSE(B31:Q31)</f>
         <v>101.08</v>
       </c>
+      <c r="K41" t="s">
+        <v>48</v>
+      </c>
+      <c r="L41" cm="1">
+        <f t="array" ref="L41:L56">TRANSPOSE(B36:Q36)</f>
+        <v>100.74</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
@@ -4022,6 +5037,12 @@
       <c r="D42">
         <v>100.94</v>
       </c>
+      <c r="K42" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42">
+        <v>100.47</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" t="s">
@@ -4030,6 +5051,12 @@
       <c r="D43">
         <v>101.27</v>
       </c>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43">
+        <v>100.16</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" t="s">
@@ -4038,6 +5065,12 @@
       <c r="D44">
         <v>100</v>
       </c>
+      <c r="K44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" t="s">
@@ -4046,6 +5079,12 @@
       <c r="D45">
         <v>100.23</v>
       </c>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45">
+        <v>100.8</v>
+      </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" t="s">
@@ -4054,6 +5093,12 @@
       <c r="D46">
         <v>100.56</v>
       </c>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+      <c r="L46">
+        <v>100.8</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" t="s">
@@ -4062,6 +5107,12 @@
       <c r="D47">
         <v>100</v>
       </c>
+      <c r="K47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L47">
+        <v>100.11</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" t="s">
@@ -4070,72 +5121,126 @@
       <c r="D48">
         <v>100.33</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <v>101.07</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" t="s">
         <v>43</v>
       </c>
       <c r="D49">
         <v>102.45</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L49">
+        <v>102.45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" t="s">
         <v>43</v>
       </c>
       <c r="D50">
         <v>100.74</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K50" t="s">
+        <v>48</v>
+      </c>
+      <c r="L50">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
         <v>43</v>
       </c>
       <c r="D51">
         <v>103.94</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L51">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" t="s">
         <v>43</v>
       </c>
       <c r="D52">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K52" t="s">
+        <v>48</v>
+      </c>
+      <c r="L52">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" t="s">
         <v>43</v>
       </c>
       <c r="D53">
         <v>101.66</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" t="s">
         <v>43</v>
       </c>
       <c r="D54">
         <v>101.23</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54">
+        <v>100.59</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" t="s">
         <v>43</v>
       </c>
       <c r="D55">
         <v>102.68</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K55" t="s">
+        <v>48</v>
+      </c>
+      <c r="L55">
+        <v>102.75</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" t="s">
         <v>43</v>
       </c>
       <c r="D56">
         <v>101.01</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K56" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" t="s">
         <v>47</v>
       </c>
@@ -4143,128 +5248,225 @@
         <f t="array" ref="D57:D72">TRANSPOSE(B32:Q32)</f>
         <v>101.8</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K57" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" cm="1">
+        <f t="array" ref="L57:L72">TRANSPOSE(B37:Q37)</f>
+        <v>100.64</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" t="s">
         <v>47</v>
       </c>
       <c r="D58">
         <v>101.64</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K58" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" t="s">
         <v>47</v>
       </c>
       <c r="D59">
         <v>101.75</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K59" t="s">
+        <v>49</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" t="s">
         <v>47</v>
       </c>
       <c r="D60">
         <v>100.33</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K60" t="s">
+        <v>49</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" t="s">
         <v>47</v>
       </c>
       <c r="D61">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K61" t="s">
+        <v>49</v>
+      </c>
+      <c r="L61">
+        <v>100.75</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" t="s">
         <v>47</v>
       </c>
       <c r="D62">
         <v>102.57</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K62" t="s">
+        <v>49</v>
+      </c>
+      <c r="L62">
+        <v>100.37</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" t="s">
         <v>47</v>
       </c>
       <c r="D63">
         <v>100.82</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K63" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" t="s">
         <v>47</v>
       </c>
       <c r="D64">
         <v>100.83</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K64" t="s">
+        <v>49</v>
+      </c>
+      <c r="L64">
+        <v>100.83</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C65" t="s">
         <v>47</v>
       </c>
       <c r="D65">
         <v>101.98</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K65" t="s">
+        <v>49</v>
+      </c>
+      <c r="L65">
+        <v>101.21</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" t="s">
         <v>47</v>
       </c>
       <c r="D66">
         <v>101.19</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K66" t="s">
+        <v>49</v>
+      </c>
+      <c r="L66">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C67" t="s">
         <v>47</v>
       </c>
       <c r="D67">
         <v>103.94</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K67" t="s">
+        <v>49</v>
+      </c>
+      <c r="L67">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C68" t="s">
         <v>47</v>
       </c>
       <c r="D68">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K68" t="s">
+        <v>49</v>
+      </c>
+      <c r="L68">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C69" t="s">
         <v>47</v>
       </c>
       <c r="D69">
         <v>101.59</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K69" t="s">
+        <v>49</v>
+      </c>
+      <c r="L69">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C70" t="s">
         <v>47</v>
       </c>
       <c r="D70">
         <v>100.78</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K70" t="s">
+        <v>49</v>
+      </c>
+      <c r="L70">
+        <v>100.59</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C71" t="s">
         <v>47</v>
       </c>
       <c r="D71">
         <v>102.54</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K71" t="s">
+        <v>49</v>
+      </c>
+      <c r="L71">
+        <v>102.44</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" t="s">
         <v>47</v>
       </c>
       <c r="D72">
         <v>102.93</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K72" t="s">
+        <v>49</v>
+      </c>
+      <c r="L72">
+        <v>100.91</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C73" t="s">
         <v>46</v>
       </c>
@@ -4272,128 +5474,225 @@
         <f t="array" ref="D73:D88">TRANSPOSE(B33:Q33)</f>
         <v>100.56</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K73" t="s">
+        <v>50</v>
+      </c>
+      <c r="L73" cm="1">
+        <f t="array" ref="L73:L88">TRANSPOSE(B38:Q38)</f>
+        <v>100.28</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C74" t="s">
         <v>46</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K74" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C75" t="s">
         <v>46</v>
       </c>
       <c r="D75">
         <v>100.79</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K75" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C76" t="s">
         <v>46</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K76" t="s">
+        <v>50</v>
+      </c>
+      <c r="L76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" t="s">
         <v>46</v>
       </c>
       <c r="D77">
         <v>100.23</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K77" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77">
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C78" t="s">
         <v>46</v>
       </c>
       <c r="D78">
         <v>100.58</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K78" t="s">
+        <v>50</v>
+      </c>
+      <c r="L78">
+        <v>100.37</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C79" t="s">
         <v>46</v>
       </c>
       <c r="D79">
         <v>100</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K79" t="s">
+        <v>50</v>
+      </c>
+      <c r="L79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C80" t="s">
         <v>46</v>
       </c>
       <c r="D80">
         <v>100</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K80" t="s">
+        <v>50</v>
+      </c>
+      <c r="L80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C81" t="s">
         <v>46</v>
       </c>
       <c r="D81">
         <v>101.76</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K81" t="s">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>101.21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C82" t="s">
         <v>46</v>
       </c>
       <c r="D82">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K82" t="s">
+        <v>50</v>
+      </c>
+      <c r="L82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C83" t="s">
         <v>46</v>
       </c>
       <c r="D83">
         <v>103.94</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K83" t="s">
+        <v>50</v>
+      </c>
+      <c r="L83">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C84" t="s">
         <v>46</v>
       </c>
       <c r="D84">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K84" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C85" t="s">
         <v>46</v>
       </c>
       <c r="D85">
         <v>101.42</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K85" t="s">
+        <v>50</v>
+      </c>
+      <c r="L85">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C86" t="s">
         <v>46</v>
       </c>
       <c r="D86">
         <v>100.58</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K86" t="s">
+        <v>50</v>
+      </c>
+      <c r="L86">
+        <v>100.42</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C87" t="s">
         <v>46</v>
       </c>
       <c r="D87">
         <v>102.48</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K87" t="s">
+        <v>50</v>
+      </c>
+      <c r="L87">
+        <v>102.48</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C88" t="s">
         <v>46</v>
       </c>
       <c r="D88">
         <v>101.03</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K88" t="s">
+        <v>50</v>
+      </c>
+      <c r="L88">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C89" t="s">
         <v>45</v>
       </c>
@@ -4401,128 +5700,225 @@
         <f t="array" ref="D89:D104">TRANSPOSE(B34:Q34)</f>
         <v>100.8</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K89" t="s">
+        <v>51</v>
+      </c>
+      <c r="L89" cm="1">
+        <f t="array" ref="L89:L104">TRANSPOSE(B39:Q39)</f>
+        <v>100.34</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C90" t="s">
         <v>45</v>
       </c>
       <c r="D90">
         <v>100</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K90" t="s">
+        <v>51</v>
+      </c>
+      <c r="L90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C91" t="s">
         <v>45</v>
       </c>
       <c r="D91">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K91" t="s">
+        <v>51</v>
+      </c>
+      <c r="L91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C92" t="s">
         <v>45</v>
       </c>
       <c r="D92">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K92" t="s">
+        <v>51</v>
+      </c>
+      <c r="L92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C93" t="s">
         <v>45</v>
       </c>
       <c r="D93">
         <v>100.75</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K93" t="s">
+        <v>51</v>
+      </c>
+      <c r="L93">
+        <v>100.67</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C94" t="s">
         <v>45</v>
       </c>
       <c r="D94">
         <v>100.33</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K94" t="s">
+        <v>51</v>
+      </c>
+      <c r="L94">
+        <v>100.37</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C95" t="s">
         <v>45</v>
       </c>
       <c r="D95">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K95" t="s">
+        <v>51</v>
+      </c>
+      <c r="L95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C96" t="s">
         <v>45</v>
       </c>
       <c r="D96">
         <v>100.91</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K96" t="s">
+        <v>51</v>
+      </c>
+      <c r="L96">
+        <v>100.08</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C97" t="s">
         <v>45</v>
       </c>
       <c r="D97">
         <v>101.21</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K97" t="s">
+        <v>51</v>
+      </c>
+      <c r="L97">
+        <v>101.21</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C98" t="s">
         <v>45</v>
       </c>
       <c r="D98">
         <v>100.15</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C99" t="s">
         <v>45</v>
       </c>
       <c r="D99">
         <v>103.94</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K99" t="s">
+        <v>51</v>
+      </c>
+      <c r="L99">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C100" t="s">
         <v>45</v>
       </c>
       <c r="D100">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K100" t="s">
+        <v>51</v>
+      </c>
+      <c r="L100">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="s">
         <v>45</v>
       </c>
       <c r="D101">
         <v>101.42</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K101" t="s">
+        <v>51</v>
+      </c>
+      <c r="L101">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C102" t="s">
         <v>45</v>
       </c>
       <c r="D102">
         <v>100.89</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K102" t="s">
+        <v>51</v>
+      </c>
+      <c r="L102">
+        <v>100.72</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C103" t="s">
         <v>45</v>
       </c>
       <c r="D103">
         <v>102.48</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K103" t="s">
+        <v>51</v>
+      </c>
+      <c r="L103">
+        <v>102.48</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C104" t="s">
         <v>45</v>
       </c>
       <c r="D104">
         <v>100.92</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="K104" t="s">
+        <v>51</v>
+      </c>
+      <c r="L104">
+        <v>101.17</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C105" t="s">
         <v>44</v>
       </c>
@@ -4531,7 +5927,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C106" t="s">
         <v>44</v>
       </c>
@@ -4539,7 +5935,7 @@
         <v>100.47</v>
       </c>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C107" t="s">
         <v>44</v>
       </c>
@@ -4547,7 +5943,7 @@
         <v>100.64</v>
       </c>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C108" t="s">
         <v>44</v>
       </c>
@@ -4555,7 +5951,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C109" t="s">
         <v>44</v>
       </c>
@@ -4563,7 +5959,7 @@
         <v>100.8</v>
       </c>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C110" t="s">
         <v>44</v>
       </c>
@@ -4571,7 +5967,7 @@
         <v>100.65</v>
       </c>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C111" t="s">
         <v>44</v>
       </c>
@@ -4579,7 +5975,7 @@
         <v>100.11</v>
       </c>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="3:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C112" t="s">
         <v>44</v>
       </c>

--- a/perf_best_excel.xlsx
+++ b/perf_best_excel.xlsx
@@ -8,29 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\kutsukawa\Programming2\tsp\kutsu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D0CEF3FE-33BB-4473-8E49-6C89F43AEB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004C6354-392C-4C93-93F9-731BB3C3B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="15260" xr2:uid="{618ED214-4E98-43F9-A4D4-6A74A5964892}"/>
   </bookViews>
   <sheets>
-    <sheet name="perf_best_excel" sheetId="1" r:id="rId1"/>
+    <sheet name="perf_best" sheetId="2" r:id="rId1"/>
+    <sheet name="perf_best_excel" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">perf_best!$C$62:$C$141</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">perf_best!$D$62:$D$141</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">perf_best_excel!$C$41:$C$120</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">perf_best_excel!$D$41:$D$120</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">perf_best_excel!$K$41:$K$104</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">perf_best_excel!$L$41:$L$104</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -52,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="69">
   <si>
     <t xml:space="preserve">       </t>
   </si>
@@ -245,6 +257,45 @@
       <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Farthest Insertion</t>
+  </si>
+  <si>
+    <t>Nearest Neighbor</t>
+  </si>
+  <si>
+    <t>fi+ls-3l</t>
+  </si>
+  <si>
+    <t>ni+ls-3l</t>
+  </si>
+  <si>
+    <t>kr+ls-3l</t>
+  </si>
+  <si>
+    <t>gr+ls-3l</t>
+  </si>
+  <si>
+    <t>ri+ls-3l</t>
+  </si>
+  <si>
+    <t>al+ls-3l</t>
+  </si>
+  <si>
+    <t>al+ls-l3</t>
+  </si>
+  <si>
+    <t>al+ls-3l3</t>
+  </si>
+  <si>
+    <t>rg+ls-t</t>
+  </si>
+  <si>
+    <t>rg+ls-c</t>
+  </si>
+  <si>
+    <t>rg+ls-d</t>
   </si>
 </sst>
 </file>
@@ -907,6 +958,95 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C4689870-CA9F-4B95-BC30-C840D7164DC7}">
+          <cx:spPr>
+            <a:noFill/>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.300000012"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="104" min="100"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>効率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                    <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                  </a:rPr>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                  <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -991,15 +1131,15 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1121,6 +1261,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2190,7 +2370,605 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="グラフ 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF56AC90-8314-4C79-81AB-49F770CBFCAF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4765675" y="13398500"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2667,11 +3445,3853 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F6EC1D-880B-4530-94FC-CE982232076C}">
+  <dimension ref="A1:Q141"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B60" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>100.9</v>
+      </c>
+      <c r="C2">
+        <v>101.17</v>
+      </c>
+      <c r="D2">
+        <v>100.95</v>
+      </c>
+      <c r="E2">
+        <v>100.79</v>
+      </c>
+      <c r="F2">
+        <v>102</v>
+      </c>
+      <c r="G2">
+        <v>103.27</v>
+      </c>
+      <c r="H2">
+        <v>101.02</v>
+      </c>
+      <c r="I2">
+        <v>104.62</v>
+      </c>
+      <c r="J2">
+        <v>104.82</v>
+      </c>
+      <c r="K2">
+        <v>101.19</v>
+      </c>
+      <c r="L2">
+        <v>103.94</v>
+      </c>
+      <c r="M2">
+        <v>100.92</v>
+      </c>
+      <c r="N2">
+        <v>102.94</v>
+      </c>
+      <c r="O2">
+        <v>101.74</v>
+      </c>
+      <c r="P2">
+        <v>104.42</v>
+      </c>
+      <c r="Q2">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>100.9</v>
+      </c>
+      <c r="C3">
+        <v>101.17</v>
+      </c>
+      <c r="D3">
+        <v>100.95</v>
+      </c>
+      <c r="E3">
+        <v>100.79</v>
+      </c>
+      <c r="F3">
+        <v>102</v>
+      </c>
+      <c r="G3">
+        <v>103.27</v>
+      </c>
+      <c r="H3">
+        <v>101.02</v>
+      </c>
+      <c r="I3">
+        <v>104.62</v>
+      </c>
+      <c r="J3">
+        <v>104.82</v>
+      </c>
+      <c r="K3">
+        <v>101.19</v>
+      </c>
+      <c r="L3">
+        <v>103.94</v>
+      </c>
+      <c r="M3">
+        <v>100.92</v>
+      </c>
+      <c r="N3">
+        <v>102.94</v>
+      </c>
+      <c r="O3">
+        <v>101.74</v>
+      </c>
+      <c r="P3">
+        <v>105.3</v>
+      </c>
+      <c r="Q3">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>104.32</v>
+      </c>
+      <c r="C4">
+        <v>101.64</v>
+      </c>
+      <c r="D4">
+        <v>104.13</v>
+      </c>
+      <c r="E4">
+        <v>101.52</v>
+      </c>
+      <c r="F4">
+        <v>101.87</v>
+      </c>
+      <c r="G4">
+        <v>104.48</v>
+      </c>
+      <c r="H4">
+        <v>101.32</v>
+      </c>
+      <c r="I4">
+        <v>104.21</v>
+      </c>
+      <c r="J4">
+        <v>104.13</v>
+      </c>
+      <c r="K4">
+        <v>101.93</v>
+      </c>
+      <c r="L4">
+        <v>103.94</v>
+      </c>
+      <c r="M4">
+        <v>100.92</v>
+      </c>
+      <c r="N4">
+        <v>102.54</v>
+      </c>
+      <c r="O4">
+        <v>103.75</v>
+      </c>
+      <c r="P4">
+        <v>104.54</v>
+      </c>
+      <c r="Q4">
+        <v>104.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>104.32</v>
+      </c>
+      <c r="C5">
+        <v>101.64</v>
+      </c>
+      <c r="D5">
+        <v>104.13</v>
+      </c>
+      <c r="E5">
+        <v>101.52</v>
+      </c>
+      <c r="F5">
+        <v>101.87</v>
+      </c>
+      <c r="G5">
+        <v>104.48</v>
+      </c>
+      <c r="H5">
+        <v>101.32</v>
+      </c>
+      <c r="I5">
+        <v>104.21</v>
+      </c>
+      <c r="J5">
+        <v>104.13</v>
+      </c>
+      <c r="K5">
+        <v>101.93</v>
+      </c>
+      <c r="L5">
+        <v>103.94</v>
+      </c>
+      <c r="M5">
+        <v>100.92</v>
+      </c>
+      <c r="N5">
+        <v>102.54</v>
+      </c>
+      <c r="O5">
+        <v>103.75</v>
+      </c>
+      <c r="P5">
+        <v>104.54</v>
+      </c>
+      <c r="Q5">
+        <v>104.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>104.32</v>
+      </c>
+      <c r="C6">
+        <v>101.64</v>
+      </c>
+      <c r="D6">
+        <v>104.13</v>
+      </c>
+      <c r="E6">
+        <v>101.52</v>
+      </c>
+      <c r="F6">
+        <v>101.87</v>
+      </c>
+      <c r="G6">
+        <v>104.48</v>
+      </c>
+      <c r="H6">
+        <v>101.32</v>
+      </c>
+      <c r="I6">
+        <v>104.21</v>
+      </c>
+      <c r="J6">
+        <v>104.13</v>
+      </c>
+      <c r="K6">
+        <v>101.93</v>
+      </c>
+      <c r="L6">
+        <v>103.94</v>
+      </c>
+      <c r="M6">
+        <v>100.92</v>
+      </c>
+      <c r="N6">
+        <v>102.54</v>
+      </c>
+      <c r="O6">
+        <v>103.75</v>
+      </c>
+      <c r="P6">
+        <v>104.54</v>
+      </c>
+      <c r="Q6">
+        <v>104.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>100.9</v>
+      </c>
+      <c r="C7">
+        <v>101.17</v>
+      </c>
+      <c r="D7">
+        <v>100.95</v>
+      </c>
+      <c r="E7">
+        <v>100.79</v>
+      </c>
+      <c r="F7">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <v>103.27</v>
+      </c>
+      <c r="H7">
+        <v>101.02</v>
+      </c>
+      <c r="I7">
+        <v>104.62</v>
+      </c>
+      <c r="J7">
+        <v>104.82</v>
+      </c>
+      <c r="K7">
+        <v>101.19</v>
+      </c>
+      <c r="L7">
+        <v>103.94</v>
+      </c>
+      <c r="M7">
+        <v>100.92</v>
+      </c>
+      <c r="N7">
+        <v>102.94</v>
+      </c>
+      <c r="O7">
+        <v>101.74</v>
+      </c>
+      <c r="P7">
+        <v>104.42</v>
+      </c>
+      <c r="Q7">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>100.9</v>
+      </c>
+      <c r="C8">
+        <v>101.17</v>
+      </c>
+      <c r="D8">
+        <v>100.95</v>
+      </c>
+      <c r="E8">
+        <v>100.79</v>
+      </c>
+      <c r="F8">
+        <v>102</v>
+      </c>
+      <c r="G8">
+        <v>103.27</v>
+      </c>
+      <c r="H8">
+        <v>101.02</v>
+      </c>
+      <c r="I8">
+        <v>104.62</v>
+      </c>
+      <c r="J8">
+        <v>104.82</v>
+      </c>
+      <c r="K8">
+        <v>101.19</v>
+      </c>
+      <c r="L8">
+        <v>103.94</v>
+      </c>
+      <c r="M8">
+        <v>100.92</v>
+      </c>
+      <c r="N8">
+        <v>102.94</v>
+      </c>
+      <c r="O8">
+        <v>101.74</v>
+      </c>
+      <c r="P8">
+        <v>104.42</v>
+      </c>
+      <c r="Q8">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>103.22</v>
+      </c>
+      <c r="C9">
+        <v>101.17</v>
+      </c>
+      <c r="D9">
+        <v>100.95</v>
+      </c>
+      <c r="E9">
+        <v>100.37</v>
+      </c>
+      <c r="F9">
+        <v>102.96</v>
+      </c>
+      <c r="G9">
+        <v>104.08</v>
+      </c>
+      <c r="H9">
+        <v>101.13</v>
+      </c>
+      <c r="I9">
+        <v>104.46</v>
+      </c>
+      <c r="J9">
+        <v>103.7</v>
+      </c>
+      <c r="K9">
+        <v>101.04</v>
+      </c>
+      <c r="L9">
+        <v>103.94</v>
+      </c>
+      <c r="M9">
+        <v>100.92</v>
+      </c>
+      <c r="N9">
+        <v>102.97</v>
+      </c>
+      <c r="O9">
+        <v>101.97</v>
+      </c>
+      <c r="P9">
+        <v>105.54</v>
+      </c>
+      <c r="Q9">
+        <v>104.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>100.9</v>
+      </c>
+      <c r="C10">
+        <v>101.17</v>
+      </c>
+      <c r="D10">
+        <v>100.95</v>
+      </c>
+      <c r="E10">
+        <v>100.79</v>
+      </c>
+      <c r="F10">
+        <v>102</v>
+      </c>
+      <c r="G10">
+        <v>103.27</v>
+      </c>
+      <c r="H10">
+        <v>101.02</v>
+      </c>
+      <c r="I10">
+        <v>104.62</v>
+      </c>
+      <c r="J10">
+        <v>104.82</v>
+      </c>
+      <c r="K10">
+        <v>101.19</v>
+      </c>
+      <c r="L10">
+        <v>103.94</v>
+      </c>
+      <c r="M10">
+        <v>100.92</v>
+      </c>
+      <c r="N10">
+        <v>102.94</v>
+      </c>
+      <c r="O10">
+        <v>101.74</v>
+      </c>
+      <c r="P10">
+        <v>104.67</v>
+      </c>
+      <c r="Q10">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>100.9</v>
+      </c>
+      <c r="C11">
+        <v>101.17</v>
+      </c>
+      <c r="D11">
+        <v>100.95</v>
+      </c>
+      <c r="E11">
+        <v>100.79</v>
+      </c>
+      <c r="F11">
+        <v>102</v>
+      </c>
+      <c r="G11">
+        <v>103.27</v>
+      </c>
+      <c r="H11">
+        <v>101.02</v>
+      </c>
+      <c r="I11">
+        <v>104.62</v>
+      </c>
+      <c r="J11">
+        <v>104.82</v>
+      </c>
+      <c r="K11">
+        <v>101.19</v>
+      </c>
+      <c r="L11">
+        <v>103.94</v>
+      </c>
+      <c r="M11">
+        <v>100.92</v>
+      </c>
+      <c r="N11">
+        <v>102.94</v>
+      </c>
+      <c r="O11">
+        <v>101.74</v>
+      </c>
+      <c r="P11">
+        <v>104.42</v>
+      </c>
+      <c r="Q11">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>104.09</v>
+      </c>
+      <c r="C12">
+        <v>101.64</v>
+      </c>
+      <c r="D12">
+        <v>103.34</v>
+      </c>
+      <c r="E12">
+        <v>101.09</v>
+      </c>
+      <c r="F12">
+        <v>103.16</v>
+      </c>
+      <c r="G12">
+        <v>103.21</v>
+      </c>
+      <c r="H12">
+        <v>102.62</v>
+      </c>
+      <c r="I12">
+        <v>102.48</v>
+      </c>
+      <c r="J12">
+        <v>104.78</v>
+      </c>
+      <c r="K12">
+        <v>100.59</v>
+      </c>
+      <c r="L12">
+        <v>103.94</v>
+      </c>
+      <c r="M12">
+        <v>100.92</v>
+      </c>
+      <c r="N12">
+        <v>103.3</v>
+      </c>
+      <c r="O12">
+        <v>103.04</v>
+      </c>
+      <c r="P12">
+        <v>104.82</v>
+      </c>
+      <c r="Q12">
+        <v>103.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>104.09</v>
+      </c>
+      <c r="C13">
+        <v>101.64</v>
+      </c>
+      <c r="D13">
+        <v>103.34</v>
+      </c>
+      <c r="E13">
+        <v>101.09</v>
+      </c>
+      <c r="F13">
+        <v>103.16</v>
+      </c>
+      <c r="G13">
+        <v>103.21</v>
+      </c>
+      <c r="H13">
+        <v>102.62</v>
+      </c>
+      <c r="I13">
+        <v>102.48</v>
+      </c>
+      <c r="J13">
+        <v>104.86</v>
+      </c>
+      <c r="K13">
+        <v>100.59</v>
+      </c>
+      <c r="L13">
+        <v>103.94</v>
+      </c>
+      <c r="M13">
+        <v>100.92</v>
+      </c>
+      <c r="N13">
+        <v>103.3</v>
+      </c>
+      <c r="O13">
+        <v>103.04</v>
+      </c>
+      <c r="P13">
+        <v>104.93</v>
+      </c>
+      <c r="Q13">
+        <v>105.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>100.9</v>
+      </c>
+      <c r="C14">
+        <v>101.17</v>
+      </c>
+      <c r="D14">
+        <v>100.95</v>
+      </c>
+      <c r="E14">
+        <v>100.79</v>
+      </c>
+      <c r="F14">
+        <v>102</v>
+      </c>
+      <c r="G14">
+        <v>103.27</v>
+      </c>
+      <c r="H14">
+        <v>101.02</v>
+      </c>
+      <c r="I14">
+        <v>104.62</v>
+      </c>
+      <c r="J14">
+        <v>104.82</v>
+      </c>
+      <c r="K14">
+        <v>101.19</v>
+      </c>
+      <c r="L14">
+        <v>103.94</v>
+      </c>
+      <c r="M14">
+        <v>100.92</v>
+      </c>
+      <c r="N14">
+        <v>102.94</v>
+      </c>
+      <c r="O14">
+        <v>101.74</v>
+      </c>
+      <c r="P14">
+        <v>104.42</v>
+      </c>
+      <c r="Q14">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>104.09</v>
+      </c>
+      <c r="C15">
+        <v>101.64</v>
+      </c>
+      <c r="D15">
+        <v>103.34</v>
+      </c>
+      <c r="E15">
+        <v>101.09</v>
+      </c>
+      <c r="F15">
+        <v>103.16</v>
+      </c>
+      <c r="G15">
+        <v>103.21</v>
+      </c>
+      <c r="H15">
+        <v>102.62</v>
+      </c>
+      <c r="I15">
+        <v>102.48</v>
+      </c>
+      <c r="J15">
+        <v>104.78</v>
+      </c>
+      <c r="K15">
+        <v>100.59</v>
+      </c>
+      <c r="L15">
+        <v>103.94</v>
+      </c>
+      <c r="M15">
+        <v>100.92</v>
+      </c>
+      <c r="N15">
+        <v>103.3</v>
+      </c>
+      <c r="O15">
+        <v>103.04</v>
+      </c>
+      <c r="P15">
+        <v>104.82</v>
+      </c>
+      <c r="Q15">
+        <v>103.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>104.01</v>
+      </c>
+      <c r="C16">
+        <v>101.17</v>
+      </c>
+      <c r="D16">
+        <v>100.95</v>
+      </c>
+      <c r="E16">
+        <v>100.79</v>
+      </c>
+      <c r="F16">
+        <v>102</v>
+      </c>
+      <c r="G16">
+        <v>103.43</v>
+      </c>
+      <c r="H16">
+        <v>100.5</v>
+      </c>
+      <c r="I16">
+        <v>104.62</v>
+      </c>
+      <c r="J16">
+        <v>104.82</v>
+      </c>
+      <c r="K16">
+        <v>101.19</v>
+      </c>
+      <c r="L16">
+        <v>103.94</v>
+      </c>
+      <c r="M16">
+        <v>100.92</v>
+      </c>
+      <c r="N16">
+        <v>103.32</v>
+      </c>
+      <c r="O16">
+        <v>101.74</v>
+      </c>
+      <c r="P16">
+        <v>106.12</v>
+      </c>
+      <c r="Q16">
+        <v>104.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>103.34</v>
+      </c>
+      <c r="C17">
+        <v>101.88</v>
+      </c>
+      <c r="D17">
+        <v>104.13</v>
+      </c>
+      <c r="E17">
+        <v>100.75</v>
+      </c>
+      <c r="F17">
+        <v>103.1</v>
+      </c>
+      <c r="G17">
+        <v>103.86</v>
+      </c>
+      <c r="H17">
+        <v>101.28</v>
+      </c>
+      <c r="I17">
+        <v>102.73</v>
+      </c>
+      <c r="J17">
+        <v>104.65</v>
+      </c>
+      <c r="K17">
+        <v>101.33</v>
+      </c>
+      <c r="L17">
+        <v>103.94</v>
+      </c>
+      <c r="M17">
+        <v>100.92</v>
+      </c>
+      <c r="N17">
+        <v>103.1</v>
+      </c>
+      <c r="O17">
+        <v>102.52</v>
+      </c>
+      <c r="P17">
+        <v>104.85</v>
+      </c>
+      <c r="Q17">
+        <v>103.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>102.16</v>
+      </c>
+      <c r="C18">
+        <v>101.41</v>
+      </c>
+      <c r="D18">
+        <v>102.38</v>
+      </c>
+      <c r="E18">
+        <v>101.29</v>
+      </c>
+      <c r="F18">
+        <v>104.14</v>
+      </c>
+      <c r="G18">
+        <v>103.75</v>
+      </c>
+      <c r="H18">
+        <v>102.41</v>
+      </c>
+      <c r="I18">
+        <v>103.3</v>
+      </c>
+      <c r="J18">
+        <v>104.69</v>
+      </c>
+      <c r="K18">
+        <v>100.3</v>
+      </c>
+      <c r="L18">
+        <v>103.94</v>
+      </c>
+      <c r="M18">
+        <v>100.92</v>
+      </c>
+      <c r="N18">
+        <v>104.1</v>
+      </c>
+      <c r="O18">
+        <v>103.3</v>
+      </c>
+      <c r="P18">
+        <v>104.16</v>
+      </c>
+      <c r="Q18">
+        <v>103.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>102.27</v>
+      </c>
+      <c r="C19">
+        <v>100.7</v>
+      </c>
+      <c r="D19">
+        <v>103.34</v>
+      </c>
+      <c r="E19">
+        <v>101.84</v>
+      </c>
+      <c r="F19">
+        <v>101.27</v>
+      </c>
+      <c r="G19">
+        <v>102.7</v>
+      </c>
+      <c r="H19">
+        <v>101.14</v>
+      </c>
+      <c r="I19">
+        <v>102.15</v>
+      </c>
+      <c r="J19">
+        <v>104.18</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>103.94</v>
+      </c>
+      <c r="M19">
+        <v>100.92</v>
+      </c>
+      <c r="N19">
+        <v>102.57</v>
+      </c>
+      <c r="O19">
+        <v>102.38</v>
+      </c>
+      <c r="P19">
+        <v>104.13</v>
+      </c>
+      <c r="Q19">
+        <v>102.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>101.57</v>
+      </c>
+      <c r="C20">
+        <v>101.17</v>
+      </c>
+      <c r="D20">
+        <v>101.11</v>
+      </c>
+      <c r="E20">
+        <v>101.39</v>
+      </c>
+      <c r="F20">
+        <v>101.38</v>
+      </c>
+      <c r="G20">
+        <v>101.41</v>
+      </c>
+      <c r="H20">
+        <v>101.1</v>
+      </c>
+      <c r="I20">
+        <v>102.06</v>
+      </c>
+      <c r="J20">
+        <v>101.81</v>
+      </c>
+      <c r="K20">
+        <v>101.04</v>
+      </c>
+      <c r="L20">
+        <v>103.94</v>
+      </c>
+      <c r="M20">
+        <v>100.92</v>
+      </c>
+      <c r="N20">
+        <v>102.7</v>
+      </c>
+      <c r="O20">
+        <v>101.77</v>
+      </c>
+      <c r="P20">
+        <v>103.74</v>
+      </c>
+      <c r="Q20">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>105.38</v>
+      </c>
+      <c r="C21">
+        <v>102.35</v>
+      </c>
+      <c r="D21">
+        <v>102.07</v>
+      </c>
+      <c r="E21">
+        <v>101.51</v>
+      </c>
+      <c r="F21">
+        <v>103.46</v>
+      </c>
+      <c r="G21">
+        <v>102.82</v>
+      </c>
+      <c r="H21">
+        <v>101.32</v>
+      </c>
+      <c r="I21">
+        <v>103.39</v>
+      </c>
+      <c r="J21">
+        <v>105.98</v>
+      </c>
+      <c r="K21">
+        <v>101.04</v>
+      </c>
+      <c r="L21">
+        <v>103.94</v>
+      </c>
+      <c r="M21">
+        <v>100.92</v>
+      </c>
+      <c r="N21">
+        <v>102.57</v>
+      </c>
+      <c r="O21">
+        <v>103.34</v>
+      </c>
+      <c r="P21">
+        <v>104.54</v>
+      </c>
+      <c r="Q21">
+        <v>102.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>103.9</v>
+      </c>
+      <c r="C22">
+        <v>103.29</v>
+      </c>
+      <c r="D22">
+        <v>103.18</v>
+      </c>
+      <c r="E22">
+        <v>104.87</v>
+      </c>
+      <c r="F22">
+        <v>101.34</v>
+      </c>
+      <c r="G22">
+        <v>105.8</v>
+      </c>
+      <c r="H22">
+        <v>103.64</v>
+      </c>
+      <c r="I22">
+        <v>105.28</v>
+      </c>
+      <c r="J22">
+        <v>103.92</v>
+      </c>
+      <c r="K22">
+        <v>103.26</v>
+      </c>
+      <c r="L22">
+        <v>103.94</v>
+      </c>
+      <c r="M22">
+        <v>100.92</v>
+      </c>
+      <c r="N22">
+        <v>106.19</v>
+      </c>
+      <c r="O22">
+        <v>105.61</v>
+      </c>
+      <c r="P22">
+        <v>104.86</v>
+      </c>
+      <c r="Q22">
+        <v>106.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>101.62</v>
+      </c>
+      <c r="C23">
+        <v>101.17</v>
+      </c>
+      <c r="D23">
+        <v>101.75</v>
+      </c>
+      <c r="E23">
+        <v>101.67</v>
+      </c>
+      <c r="F23">
+        <v>101.61</v>
+      </c>
+      <c r="G23">
+        <v>102.3</v>
+      </c>
+      <c r="H23">
+        <v>100.26</v>
+      </c>
+      <c r="I23">
+        <v>103.22</v>
+      </c>
+      <c r="J23">
+        <v>104.35</v>
+      </c>
+      <c r="K23">
+        <v>100.15</v>
+      </c>
+      <c r="L23">
+        <v>103.94</v>
+      </c>
+      <c r="M23">
+        <v>100.92</v>
+      </c>
+      <c r="N23">
+        <v>103.82</v>
+      </c>
+      <c r="O23">
+        <v>102.64</v>
+      </c>
+      <c r="P23">
+        <v>105</v>
+      </c>
+      <c r="Q23">
+        <v>102.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>101.95</v>
+      </c>
+      <c r="C24">
+        <v>100.23</v>
+      </c>
+      <c r="D24">
+        <v>101.59</v>
+      </c>
+      <c r="E24">
+        <v>101.01</v>
+      </c>
+      <c r="F24">
+        <v>102.88</v>
+      </c>
+      <c r="G24">
+        <v>100.93</v>
+      </c>
+      <c r="H24">
+        <v>101.81</v>
+      </c>
+      <c r="I24">
+        <v>102.31</v>
+      </c>
+      <c r="J24">
+        <v>101.72</v>
+      </c>
+      <c r="K24">
+        <v>101.33</v>
+      </c>
+      <c r="L24">
+        <v>103.94</v>
+      </c>
+      <c r="M24">
+        <v>100.92</v>
+      </c>
+      <c r="N24">
+        <v>103.4</v>
+      </c>
+      <c r="O24">
+        <v>101.41</v>
+      </c>
+      <c r="P24">
+        <v>104.16</v>
+      </c>
+      <c r="Q24">
+        <v>102.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>101.62</v>
+      </c>
+      <c r="C25">
+        <v>100.23</v>
+      </c>
+      <c r="D25">
+        <v>101.59</v>
+      </c>
+      <c r="E25">
+        <v>101.01</v>
+      </c>
+      <c r="F25">
+        <v>101.61</v>
+      </c>
+      <c r="G25">
+        <v>100.93</v>
+      </c>
+      <c r="H25">
+        <v>100.26</v>
+      </c>
+      <c r="I25">
+        <v>102.31</v>
+      </c>
+      <c r="J25">
+        <v>101.72</v>
+      </c>
+      <c r="K25">
+        <v>100.15</v>
+      </c>
+      <c r="L25">
+        <v>103.94</v>
+      </c>
+      <c r="M25">
+        <v>100.92</v>
+      </c>
+      <c r="N25">
+        <v>103.4</v>
+      </c>
+      <c r="O25">
+        <v>101.41</v>
+      </c>
+      <c r="P25">
+        <v>104.16</v>
+      </c>
+      <c r="Q25">
+        <v>102.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>102.05</v>
+      </c>
+      <c r="C26">
+        <v>101.41</v>
+      </c>
+      <c r="D26">
+        <v>103.34</v>
+      </c>
+      <c r="E26">
+        <v>101.57</v>
+      </c>
+      <c r="F26">
+        <v>102.45</v>
+      </c>
+      <c r="G26">
+        <v>101.32</v>
+      </c>
+      <c r="H26">
+        <v>101.26</v>
+      </c>
+      <c r="I26">
+        <v>102.15</v>
+      </c>
+      <c r="J26">
+        <v>103.79</v>
+      </c>
+      <c r="K26">
+        <v>101.93</v>
+      </c>
+      <c r="L26">
+        <v>103.94</v>
+      </c>
+      <c r="M26">
+        <v>100.92</v>
+      </c>
+      <c r="N26">
+        <v>103.93</v>
+      </c>
+      <c r="O26">
+        <v>102.38</v>
+      </c>
+      <c r="P26">
+        <v>104.01</v>
+      </c>
+      <c r="Q26">
+        <v>104.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>101.57</v>
+      </c>
+      <c r="C27">
+        <v>100.7</v>
+      </c>
+      <c r="D27">
+        <v>101.11</v>
+      </c>
+      <c r="E27">
+        <v>101.39</v>
+      </c>
+      <c r="F27">
+        <v>101.27</v>
+      </c>
+      <c r="G27">
+        <v>101.41</v>
+      </c>
+      <c r="H27">
+        <v>101.1</v>
+      </c>
+      <c r="I27">
+        <v>102.06</v>
+      </c>
+      <c r="J27">
+        <v>101.81</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>103.94</v>
+      </c>
+      <c r="M27">
+        <v>100.92</v>
+      </c>
+      <c r="N27">
+        <v>102.57</v>
+      </c>
+      <c r="O27">
+        <v>101.77</v>
+      </c>
+      <c r="P27">
+        <v>103.74</v>
+      </c>
+      <c r="Q27">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>101.73</v>
+      </c>
+      <c r="C28">
+        <v>100.94</v>
+      </c>
+      <c r="D28">
+        <v>100.64</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>101.49</v>
+      </c>
+      <c r="G28">
+        <v>100.55</v>
+      </c>
+      <c r="H28">
+        <v>100.25</v>
+      </c>
+      <c r="I28">
+        <v>101.49</v>
+      </c>
+      <c r="J28">
+        <v>101.16</v>
+      </c>
+      <c r="K28">
+        <v>100.74</v>
+      </c>
+      <c r="L28">
+        <v>103.94</v>
+      </c>
+      <c r="M28">
+        <v>100.92</v>
+      </c>
+      <c r="N28">
+        <v>101.62</v>
+      </c>
+      <c r="O28">
+        <v>101.04</v>
+      </c>
+      <c r="P28">
+        <v>103.04</v>
+      </c>
+      <c r="Q28">
+        <v>101.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>101.57</v>
+      </c>
+      <c r="C29">
+        <v>100.7</v>
+      </c>
+      <c r="D29">
+        <v>101.11</v>
+      </c>
+      <c r="E29">
+        <v>101.39</v>
+      </c>
+      <c r="F29">
+        <v>101.27</v>
+      </c>
+      <c r="G29">
+        <v>101.41</v>
+      </c>
+      <c r="H29">
+        <v>101.1</v>
+      </c>
+      <c r="I29">
+        <v>102.06</v>
+      </c>
+      <c r="J29">
+        <v>101.81</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>103.94</v>
+      </c>
+      <c r="M29">
+        <v>100.92</v>
+      </c>
+      <c r="N29">
+        <v>102.57</v>
+      </c>
+      <c r="O29">
+        <v>101.77</v>
+      </c>
+      <c r="P29">
+        <v>103.74</v>
+      </c>
+      <c r="Q29">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>101.57</v>
+      </c>
+      <c r="C30">
+        <v>100.7</v>
+      </c>
+      <c r="D30">
+        <v>101.11</v>
+      </c>
+      <c r="E30">
+        <v>101.39</v>
+      </c>
+      <c r="F30">
+        <v>101.27</v>
+      </c>
+      <c r="G30">
+        <v>101.41</v>
+      </c>
+      <c r="H30">
+        <v>101.1</v>
+      </c>
+      <c r="I30">
+        <v>102.06</v>
+      </c>
+      <c r="J30">
+        <v>101.81</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>103.94</v>
+      </c>
+      <c r="M30">
+        <v>100.92</v>
+      </c>
+      <c r="N30">
+        <v>102.57</v>
+      </c>
+      <c r="O30">
+        <v>101.77</v>
+      </c>
+      <c r="P30">
+        <v>103.74</v>
+      </c>
+      <c r="Q30">
+        <v>102.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>101.08</v>
+      </c>
+      <c r="C31">
+        <v>100.94</v>
+      </c>
+      <c r="D31">
+        <v>101.27</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>100.23</v>
+      </c>
+      <c r="G31">
+        <v>100.56</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
+      </c>
+      <c r="I31">
+        <v>100.33</v>
+      </c>
+      <c r="J31">
+        <v>102.45</v>
+      </c>
+      <c r="K31">
+        <v>100.74</v>
+      </c>
+      <c r="L31">
+        <v>103.94</v>
+      </c>
+      <c r="M31">
+        <v>100.92</v>
+      </c>
+      <c r="N31">
+        <v>101.66</v>
+      </c>
+      <c r="O31">
+        <v>101.23</v>
+      </c>
+      <c r="P31">
+        <v>102.68</v>
+      </c>
+      <c r="Q31">
+        <v>101.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>101.8</v>
+      </c>
+      <c r="C32">
+        <v>101.64</v>
+      </c>
+      <c r="D32">
+        <v>101.75</v>
+      </c>
+      <c r="E32">
+        <v>100.33</v>
+      </c>
+      <c r="F32">
+        <v>100.92</v>
+      </c>
+      <c r="G32">
+        <v>102.57</v>
+      </c>
+      <c r="H32">
+        <v>100.82</v>
+      </c>
+      <c r="I32">
+        <v>100.83</v>
+      </c>
+      <c r="J32">
+        <v>101.98</v>
+      </c>
+      <c r="K32">
+        <v>101.19</v>
+      </c>
+      <c r="L32">
+        <v>103.94</v>
+      </c>
+      <c r="M32">
+        <v>100.92</v>
+      </c>
+      <c r="N32">
+        <v>101.59</v>
+      </c>
+      <c r="O32">
+        <v>100.78</v>
+      </c>
+      <c r="P32">
+        <v>102.54</v>
+      </c>
+      <c r="Q32">
+        <v>102.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>100.56</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100.79</v>
+      </c>
+      <c r="E33">
+        <v>100</v>
+      </c>
+      <c r="F33">
+        <v>100.23</v>
+      </c>
+      <c r="G33">
+        <v>100.58</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+      <c r="J33">
+        <v>101.76</v>
+      </c>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>103.94</v>
+      </c>
+      <c r="M33">
+        <v>100.92</v>
+      </c>
+      <c r="N33">
+        <v>101.42</v>
+      </c>
+      <c r="O33">
+        <v>100.58</v>
+      </c>
+      <c r="P33">
+        <v>102.48</v>
+      </c>
+      <c r="Q33">
+        <v>101.03</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>100.8</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>100</v>
+      </c>
+      <c r="F34">
+        <v>100.75</v>
+      </c>
+      <c r="G34">
+        <v>100.33</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+      <c r="I34">
+        <v>100.91</v>
+      </c>
+      <c r="J34">
+        <v>101.21</v>
+      </c>
+      <c r="K34">
+        <v>100.15</v>
+      </c>
+      <c r="L34">
+        <v>103.94</v>
+      </c>
+      <c r="M34">
+        <v>100.92</v>
+      </c>
+      <c r="N34">
+        <v>101.42</v>
+      </c>
+      <c r="O34">
+        <v>100.89</v>
+      </c>
+      <c r="P34">
+        <v>102.48</v>
+      </c>
+      <c r="Q34">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>100.64</v>
+      </c>
+      <c r="C35">
+        <v>100.47</v>
+      </c>
+      <c r="D35">
+        <v>100.64</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>100.8</v>
+      </c>
+      <c r="G35">
+        <v>100.65</v>
+      </c>
+      <c r="H35">
+        <v>100.11</v>
+      </c>
+      <c r="I35">
+        <v>101.07</v>
+      </c>
+      <c r="J35">
+        <v>102.32</v>
+      </c>
+      <c r="K35">
+        <v>100.15</v>
+      </c>
+      <c r="L35">
+        <v>103.94</v>
+      </c>
+      <c r="M35">
+        <v>100.92</v>
+      </c>
+      <c r="N35">
+        <v>101.42</v>
+      </c>
+      <c r="O35">
+        <v>100.59</v>
+      </c>
+      <c r="P35">
+        <v>102.4</v>
+      </c>
+      <c r="Q35">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>100.74</v>
+      </c>
+      <c r="C36">
+        <v>100.47</v>
+      </c>
+      <c r="D36">
+        <v>100.16</v>
+      </c>
+      <c r="E36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>100.8</v>
+      </c>
+      <c r="G36">
+        <v>100.8</v>
+      </c>
+      <c r="H36">
+        <v>100.11</v>
+      </c>
+      <c r="I36">
+        <v>101.07</v>
+      </c>
+      <c r="J36">
+        <v>102.45</v>
+      </c>
+      <c r="K36">
+        <v>100.15</v>
+      </c>
+      <c r="L36">
+        <v>103.94</v>
+      </c>
+      <c r="M36">
+        <v>100.92</v>
+      </c>
+      <c r="N36">
+        <v>101.42</v>
+      </c>
+      <c r="O36">
+        <v>100.59</v>
+      </c>
+      <c r="P36">
+        <v>102.75</v>
+      </c>
+      <c r="Q36">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>100.64</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>100.75</v>
+      </c>
+      <c r="G37">
+        <v>100.37</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>100.83</v>
+      </c>
+      <c r="J37">
+        <v>101.21</v>
+      </c>
+      <c r="K37">
+        <v>100.15</v>
+      </c>
+      <c r="L37">
+        <v>103.94</v>
+      </c>
+      <c r="M37">
+        <v>100.92</v>
+      </c>
+      <c r="N37">
+        <v>101.42</v>
+      </c>
+      <c r="O37">
+        <v>100.59</v>
+      </c>
+      <c r="P37">
+        <v>102.44</v>
+      </c>
+      <c r="Q37">
+        <v>100.91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>100.8</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>100.95</v>
+      </c>
+      <c r="E38">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>100.14</v>
+      </c>
+      <c r="G38">
+        <v>100.93</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="I38">
+        <v>100.33</v>
+      </c>
+      <c r="J38">
+        <v>101.72</v>
+      </c>
+      <c r="K38">
+        <v>100</v>
+      </c>
+      <c r="L38">
+        <v>103.94</v>
+      </c>
+      <c r="M38">
+        <v>100.92</v>
+      </c>
+      <c r="N38">
+        <v>101.49</v>
+      </c>
+      <c r="O38">
+        <v>101.11</v>
+      </c>
+      <c r="P38">
+        <v>103.52</v>
+      </c>
+      <c r="Q38">
+        <v>102.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>100.52</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>100.48</v>
+      </c>
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <v>100.55</v>
+      </c>
+      <c r="G39">
+        <v>100.75</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="I39">
+        <v>100.08</v>
+      </c>
+      <c r="J39">
+        <v>101.72</v>
+      </c>
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39">
+        <v>103.94</v>
+      </c>
+      <c r="M39">
+        <v>100.92</v>
+      </c>
+      <c r="N39">
+        <v>101.52</v>
+      </c>
+      <c r="O39">
+        <v>100.69</v>
+      </c>
+      <c r="P39">
+        <v>102.55</v>
+      </c>
+      <c r="Q39">
+        <v>101.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>100.41</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>100.79</v>
+      </c>
+      <c r="E40">
+        <v>100</v>
+      </c>
+      <c r="F40">
+        <v>100.52</v>
+      </c>
+      <c r="G40">
+        <v>100.83</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="I40">
+        <v>100</v>
+      </c>
+      <c r="J40">
+        <v>101.72</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>103.94</v>
+      </c>
+      <c r="M40">
+        <v>100.92</v>
+      </c>
+      <c r="N40">
+        <v>101.42</v>
+      </c>
+      <c r="O40">
+        <v>100.8</v>
+      </c>
+      <c r="P40">
+        <v>103.15</v>
+      </c>
+      <c r="Q40">
+        <v>101.59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>100.34</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>100.64</v>
+      </c>
+      <c r="G41">
+        <v>100.37</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>100.08</v>
+      </c>
+      <c r="J41">
+        <v>101.21</v>
+      </c>
+      <c r="K41">
+        <v>100</v>
+      </c>
+      <c r="L41">
+        <v>103.94</v>
+      </c>
+      <c r="M41">
+        <v>100.92</v>
+      </c>
+      <c r="N41">
+        <v>101.42</v>
+      </c>
+      <c r="O41">
+        <v>100.46</v>
+      </c>
+      <c r="P41">
+        <v>102.48</v>
+      </c>
+      <c r="Q41">
+        <v>101.17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>100.34</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>100.16</v>
+      </c>
+      <c r="E42">
+        <v>100</v>
+      </c>
+      <c r="F42">
+        <v>100.51</v>
+      </c>
+      <c r="G42">
+        <v>100.37</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>100.08</v>
+      </c>
+      <c r="J42">
+        <v>101.46</v>
+      </c>
+      <c r="K42">
+        <v>100</v>
+      </c>
+      <c r="L42">
+        <v>103.94</v>
+      </c>
+      <c r="M42">
+        <v>100.92</v>
+      </c>
+      <c r="N42">
+        <v>101.49</v>
+      </c>
+      <c r="O42">
+        <v>100.58</v>
+      </c>
+      <c r="P42">
+        <v>102.74</v>
+      </c>
+      <c r="Q42">
+        <v>101.84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>100.28</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>100.16</v>
+      </c>
+      <c r="E43">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>100.5</v>
+      </c>
+      <c r="G43">
+        <v>100.3</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>100.17</v>
+      </c>
+      <c r="J43">
+        <v>101.76</v>
+      </c>
+      <c r="K43">
+        <v>100.15</v>
+      </c>
+      <c r="L43">
+        <v>103.94</v>
+      </c>
+      <c r="M43">
+        <v>100.92</v>
+      </c>
+      <c r="N43">
+        <v>101.42</v>
+      </c>
+      <c r="O43">
+        <v>100.42</v>
+      </c>
+      <c r="P43">
+        <v>102.02</v>
+      </c>
+      <c r="Q43">
+        <v>101.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>100.28</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>100.16</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>100.65</v>
+      </c>
+      <c r="G44">
+        <v>100.54</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>100.17</v>
+      </c>
+      <c r="J44">
+        <v>102.07</v>
+      </c>
+      <c r="K44">
+        <v>100.15</v>
+      </c>
+      <c r="L44">
+        <v>103.94</v>
+      </c>
+      <c r="M44">
+        <v>100.92</v>
+      </c>
+      <c r="N44">
+        <v>101.52</v>
+      </c>
+      <c r="O44">
+        <v>100.58</v>
+      </c>
+      <c r="P44">
+        <v>103.19</v>
+      </c>
+      <c r="Q44">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45">
+        <v>100.28</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>100.16</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <v>100.77</v>
+      </c>
+      <c r="G45">
+        <v>100.54</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>100.08</v>
+      </c>
+      <c r="J45">
+        <v>101.46</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>103.94</v>
+      </c>
+      <c r="M45">
+        <v>100.92</v>
+      </c>
+      <c r="N45">
+        <v>101.42</v>
+      </c>
+      <c r="O45">
+        <v>100.46</v>
+      </c>
+      <c r="P45">
+        <v>102.02</v>
+      </c>
+      <c r="Q45">
+        <v>101.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46">
+        <v>100.28</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>100.16</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46">
+        <v>100.77</v>
+      </c>
+      <c r="G46">
+        <v>100.37</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>100.17</v>
+      </c>
+      <c r="J46">
+        <v>101.51</v>
+      </c>
+      <c r="K46">
+        <v>100.15</v>
+      </c>
+      <c r="L46">
+        <v>103.94</v>
+      </c>
+      <c r="M46">
+        <v>100.92</v>
+      </c>
+      <c r="N46">
+        <v>101.52</v>
+      </c>
+      <c r="O46">
+        <v>100.59</v>
+      </c>
+      <c r="P46">
+        <v>102.76</v>
+      </c>
+      <c r="Q46">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47">
+        <v>100</v>
+      </c>
+      <c r="F47">
+        <v>100.65</v>
+      </c>
+      <c r="G47">
+        <v>100.41</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>100.17</v>
+      </c>
+      <c r="J47">
+        <v>101.81</v>
+      </c>
+      <c r="K47">
+        <v>100.15</v>
+      </c>
+      <c r="L47">
+        <v>103.94</v>
+      </c>
+      <c r="M47">
+        <v>100.92</v>
+      </c>
+      <c r="N47">
+        <v>101.42</v>
+      </c>
+      <c r="O47">
+        <v>100.46</v>
+      </c>
+      <c r="P47">
+        <v>102.02</v>
+      </c>
+      <c r="Q47">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48">
+        <v>100</v>
+      </c>
+      <c r="F48">
+        <v>100.54</v>
+      </c>
+      <c r="G48">
+        <v>100.35</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
+      </c>
+      <c r="I48">
+        <v>100.17</v>
+      </c>
+      <c r="J48">
+        <v>100.99</v>
+      </c>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>103.94</v>
+      </c>
+      <c r="M48">
+        <v>100.92</v>
+      </c>
+      <c r="N48">
+        <v>101.42</v>
+      </c>
+      <c r="O48">
+        <v>100.46</v>
+      </c>
+      <c r="P48">
+        <v>102.02</v>
+      </c>
+      <c r="Q48">
+        <v>100.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>100</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+      <c r="F49">
+        <v>100.23</v>
+      </c>
+      <c r="G49">
+        <v>100.37</v>
+      </c>
+      <c r="H49">
+        <v>100</v>
+      </c>
+      <c r="I49">
+        <v>100.17</v>
+      </c>
+      <c r="J49">
+        <v>100.99</v>
+      </c>
+      <c r="K49">
+        <v>100</v>
+      </c>
+      <c r="L49">
+        <v>103.94</v>
+      </c>
+      <c r="M49">
+        <v>100.92</v>
+      </c>
+      <c r="N49">
+        <v>101.42</v>
+      </c>
+      <c r="O49">
+        <v>100.46</v>
+      </c>
+      <c r="P49">
+        <v>102.66</v>
+      </c>
+      <c r="Q49">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>100.37</v>
+      </c>
+      <c r="G50">
+        <v>100.21</v>
+      </c>
+      <c r="H50">
+        <v>100</v>
+      </c>
+      <c r="I50">
+        <v>100.08</v>
+      </c>
+      <c r="J50">
+        <v>100.99</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+      <c r="L50">
+        <v>103.94</v>
+      </c>
+      <c r="M50">
+        <v>100.92</v>
+      </c>
+      <c r="N50">
+        <v>101.42</v>
+      </c>
+      <c r="O50">
+        <v>100.46</v>
+      </c>
+      <c r="P50">
+        <v>102.02</v>
+      </c>
+      <c r="Q50">
+        <v>100.64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>100.31</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+      <c r="F51">
+        <v>100.69</v>
+      </c>
+      <c r="G51">
+        <v>100.98</v>
+      </c>
+      <c r="H51">
+        <v>100</v>
+      </c>
+      <c r="I51">
+        <v>100.08</v>
+      </c>
+      <c r="J51">
+        <v>102.24</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+      <c r="L51">
+        <v>103.94</v>
+      </c>
+      <c r="M51">
+        <v>100.92</v>
+      </c>
+      <c r="N51">
+        <v>101.42</v>
+      </c>
+      <c r="O51">
+        <v>100.88</v>
+      </c>
+      <c r="P51">
+        <v>103.38</v>
+      </c>
+      <c r="Q51">
+        <v>100.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52">
+        <v>100.28</v>
+      </c>
+      <c r="C52">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>100.38</v>
+      </c>
+      <c r="G52">
+        <v>100.35</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>100.08</v>
+      </c>
+      <c r="J52">
+        <v>101.76</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+      <c r="L52">
+        <v>103.94</v>
+      </c>
+      <c r="M52">
+        <v>100.92</v>
+      </c>
+      <c r="N52">
+        <v>101.42</v>
+      </c>
+      <c r="O52">
+        <v>100.53</v>
+      </c>
+      <c r="P52">
+        <v>102.51</v>
+      </c>
+      <c r="Q52">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>100.88</v>
+      </c>
+      <c r="C53">
+        <v>100</v>
+      </c>
+      <c r="D53">
+        <v>100.32</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53">
+        <v>100.21</v>
+      </c>
+      <c r="G53">
+        <v>100.45</v>
+      </c>
+      <c r="H53">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>100.17</v>
+      </c>
+      <c r="J53">
+        <v>101.55</v>
+      </c>
+      <c r="K53">
+        <v>100.15</v>
+      </c>
+      <c r="L53">
+        <v>103.94</v>
+      </c>
+      <c r="M53">
+        <v>100.92</v>
+      </c>
+      <c r="N53">
+        <v>101.52</v>
+      </c>
+      <c r="O53">
+        <v>100.67</v>
+      </c>
+      <c r="P53">
+        <v>102.72</v>
+      </c>
+      <c r="Q53">
+        <v>102.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54">
+        <v>100.23</v>
+      </c>
+      <c r="G54">
+        <v>100.31</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>100.08</v>
+      </c>
+      <c r="J54">
+        <v>100.99</v>
+      </c>
+      <c r="K54">
+        <v>100</v>
+      </c>
+      <c r="L54">
+        <v>103.94</v>
+      </c>
+      <c r="M54">
+        <v>100.92</v>
+      </c>
+      <c r="N54">
+        <v>101.42</v>
+      </c>
+      <c r="O54">
+        <v>100.46</v>
+      </c>
+      <c r="P54">
+        <v>102.74</v>
+      </c>
+      <c r="Q54">
+        <v>100.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>100.28</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>100</v>
+      </c>
+      <c r="F55">
+        <v>100.1</v>
+      </c>
+      <c r="G55">
+        <v>100.37</v>
+      </c>
+      <c r="H55">
+        <v>100</v>
+      </c>
+      <c r="I55">
+        <v>100</v>
+      </c>
+      <c r="J55">
+        <v>101.21</v>
+      </c>
+      <c r="K55">
+        <v>100</v>
+      </c>
+      <c r="L55">
+        <v>103.94</v>
+      </c>
+      <c r="M55">
+        <v>100.92</v>
+      </c>
+      <c r="N55">
+        <v>101.42</v>
+      </c>
+      <c r="O55">
+        <v>100.42</v>
+      </c>
+      <c r="P55">
+        <v>102.48</v>
+      </c>
+      <c r="Q55">
+        <v>101.51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>100</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>100.16</v>
+      </c>
+      <c r="E56">
+        <v>100</v>
+      </c>
+      <c r="F56">
+        <v>100.21</v>
+      </c>
+      <c r="G56">
+        <v>100.6</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="I56">
+        <v>100.17</v>
+      </c>
+      <c r="J56">
+        <v>101.94</v>
+      </c>
+      <c r="K56">
+        <v>100</v>
+      </c>
+      <c r="L56">
+        <v>103.94</v>
+      </c>
+      <c r="M56">
+        <v>100.92</v>
+      </c>
+      <c r="N56">
+        <v>101.42</v>
+      </c>
+      <c r="O56">
+        <v>100.78</v>
+      </c>
+      <c r="P56">
+        <v>102.62</v>
+      </c>
+      <c r="Q56">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57">
+        <v>100.57</v>
+      </c>
+      <c r="C57">
+        <v>100.23</v>
+      </c>
+      <c r="D57">
+        <v>100</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <v>100.9</v>
+      </c>
+      <c r="G57">
+        <v>100.41</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>100.17</v>
+      </c>
+      <c r="J57">
+        <v>101.38</v>
+      </c>
+      <c r="K57">
+        <v>100.15</v>
+      </c>
+      <c r="L57">
+        <v>103.94</v>
+      </c>
+      <c r="M57">
+        <v>100.92</v>
+      </c>
+      <c r="N57">
+        <v>101.52</v>
+      </c>
+      <c r="O57">
+        <v>100.46</v>
+      </c>
+      <c r="P57">
+        <v>102.97</v>
+      </c>
+      <c r="Q57">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
+        <v>100.28</v>
+      </c>
+      <c r="C58">
+        <v>100.47</v>
+      </c>
+      <c r="D58">
+        <v>100.79</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58">
+        <v>100.6</v>
+      </c>
+      <c r="G58">
+        <v>100.58</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+      <c r="I58">
+        <v>100.58</v>
+      </c>
+      <c r="J58">
+        <v>101.81</v>
+      </c>
+      <c r="K58">
+        <v>100</v>
+      </c>
+      <c r="L58">
+        <v>103.94</v>
+      </c>
+      <c r="M58">
+        <v>100.92</v>
+      </c>
+      <c r="N58">
+        <v>101.42</v>
+      </c>
+      <c r="O58">
+        <v>100.72</v>
+      </c>
+      <c r="P58">
+        <v>102.8</v>
+      </c>
+      <c r="Q58">
+        <v>101.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>101.85</v>
+      </c>
+      <c r="C59">
+        <v>100.23</v>
+      </c>
+      <c r="D59">
+        <v>101.91</v>
+      </c>
+      <c r="E59">
+        <v>100.11</v>
+      </c>
+      <c r="F59">
+        <v>100.38</v>
+      </c>
+      <c r="G59">
+        <v>102.62</v>
+      </c>
+      <c r="H59">
+        <v>100.29</v>
+      </c>
+      <c r="I59">
+        <v>100.74</v>
+      </c>
+      <c r="J59">
+        <v>102.54</v>
+      </c>
+      <c r="K59">
+        <v>100.89</v>
+      </c>
+      <c r="L59">
+        <v>103.94</v>
+      </c>
+      <c r="M59">
+        <v>100.92</v>
+      </c>
+      <c r="N59">
+        <v>101.42</v>
+      </c>
+      <c r="O59">
+        <v>101.59</v>
+      </c>
+      <c r="P59">
+        <v>102.98</v>
+      </c>
+      <c r="Q59">
+        <v>102.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>100.72</v>
+      </c>
+      <c r="C60">
+        <v>100</v>
+      </c>
+      <c r="D60">
+        <v>101.43</v>
+      </c>
+      <c r="E60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>101</v>
+      </c>
+      <c r="G60">
+        <v>100.72</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>100.08</v>
+      </c>
+      <c r="J60">
+        <v>102.07</v>
+      </c>
+      <c r="K60">
+        <v>100.15</v>
+      </c>
+      <c r="L60">
+        <v>103.94</v>
+      </c>
+      <c r="M60">
+        <v>100.92</v>
+      </c>
+      <c r="N60">
+        <v>101.52</v>
+      </c>
+      <c r="O60">
+        <v>100.88</v>
+      </c>
+      <c r="P60">
+        <v>102.17</v>
+      </c>
+      <c r="Q60">
+        <v>100.74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D62" cm="1">
+        <f t="array" ref="D62:D77">TRANSPOSE($B56:$Q56)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64">
+        <v>100.16</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>100.21</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69">
+        <v>100.17</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" t="s">
+        <v>46</v>
+      </c>
+      <c r="D70">
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D72">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c r="D74">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75">
+        <v>100.78</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76">
+        <v>102.62</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" cm="1">
+        <f t="array" ref="D78:D93">TRANSPOSE($B57:$Q57)</f>
+        <v>100.57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>100.23</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>100.9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83">
+        <v>100.41</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D85">
+        <v>100.17</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>101.38</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" t="s">
+        <v>57</v>
+      </c>
+      <c r="D87">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" t="s">
+        <v>57</v>
+      </c>
+      <c r="D88">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" t="s">
+        <v>57</v>
+      </c>
+      <c r="D90">
+        <v>101.52</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91">
+        <v>100.46</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92">
+        <v>102.97</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>101.04</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" cm="1">
+        <f t="array" ref="D94:D109">TRANSPOSE($B58:$Q58)</f>
+        <v>100.28</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95">
+        <v>100.47</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96">
+        <v>100.79</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" t="s">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" t="s">
+        <v>44</v>
+      </c>
+      <c r="D98">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99">
+        <v>100.58</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" t="s">
+        <v>44</v>
+      </c>
+      <c r="D101">
+        <v>100.58</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102">
+        <v>101.81</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" t="s">
+        <v>44</v>
+      </c>
+      <c r="D105">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107">
+        <v>100.72</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <v>102.8</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D109">
+        <v>101.57</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" cm="1">
+        <f t="array" ref="D110:D125">TRANSPOSE($B59:$Q59)</f>
+        <v>101.85</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111">
+        <v>100.23</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112">
+        <v>101.91</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" t="s">
+        <v>47</v>
+      </c>
+      <c r="D113">
+        <v>100.11</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D114">
+        <v>100.38</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115">
+        <v>102.62</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+      <c r="D116">
+        <v>100.29</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D117">
+        <v>100.74</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118">
+        <v>102.54</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119">
+        <v>100.89</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" t="s">
+        <v>47</v>
+      </c>
+      <c r="D121">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122">
+        <v>101.42</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" t="s">
+        <v>47</v>
+      </c>
+      <c r="D123">
+        <v>101.59</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D124">
+        <v>102.98</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125">
+        <v>102.16</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" cm="1">
+        <f t="array" ref="D126:D141">TRANSPOSE($B60:$Q60)</f>
+        <v>100.72</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C127" t="s">
+        <v>56</v>
+      </c>
+      <c r="D127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C128" t="s">
+        <v>56</v>
+      </c>
+      <c r="D128">
+        <v>101.43</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C129" t="s">
+        <v>56</v>
+      </c>
+      <c r="D129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130" t="s">
+        <v>56</v>
+      </c>
+      <c r="D130">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" t="s">
+        <v>56</v>
+      </c>
+      <c r="D131">
+        <v>100.72</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132" t="s">
+        <v>56</v>
+      </c>
+      <c r="D132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133">
+        <v>100.08</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134" t="s">
+        <v>56</v>
+      </c>
+      <c r="D134">
+        <v>102.07</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C135" t="s">
+        <v>56</v>
+      </c>
+      <c r="D135">
+        <v>100.15</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C136" t="s">
+        <v>56</v>
+      </c>
+      <c r="D136">
+        <v>103.94</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C137" t="s">
+        <v>56</v>
+      </c>
+      <c r="D137">
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C138" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138">
+        <v>101.52</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139" t="s">
+        <v>56</v>
+      </c>
+      <c r="D139">
+        <v>100.88</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140">
+        <v>102.17</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C141" t="s">
+        <v>56</v>
+      </c>
+      <c r="D141">
+        <v>100.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A7C18F-B6E1-4031-B7C5-C7EAA07A770B}">
   <dimension ref="A1:AL120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AL5"/>
+    <sheetView topLeftCell="A42" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
